--- a/aldi/aldi.xlsx
+++ b/aldi/aldi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\imedkrisna.github.io\aldi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA36FEC-6662-4909-8AF8-8EC9D1C99BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563867EB-1F4D-4F7C-A642-5E8FAEF85060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="106">
   <si>
     <t>Pertamax (RON 92)</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>bi</t>
   </si>
 </sst>
 </file>
@@ -5425,13 +5428,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEAD530-EAC0-4DB5-A7AA-FF593DF48293}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -5465,8 +5470,11 @@
       <c r="K1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -5500,8 +5508,11 @@
       <c r="K2">
         <v>13973</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -5535,8 +5546,11 @@
       <c r="K3">
         <v>14069</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -5570,8 +5584,11 @@
       <c r="K4">
         <v>14243</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -5605,8 +5622,11 @@
       <c r="K5">
         <v>14257</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -5640,8 +5660,11 @@
       <c r="K6">
         <v>14269</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -5675,8 +5698,11 @@
       <c r="K7">
         <v>14126</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -5710,8 +5736,11 @@
       <c r="K8">
         <v>14022</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -5745,8 +5774,11 @@
       <c r="K9">
         <v>14198</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -5780,8 +5812,11 @@
       <c r="K10">
         <v>14195</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5815,8 +5850,11 @@
       <c r="K11">
         <v>14043</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -5850,8 +5888,11 @@
       <c r="K12">
         <v>14108</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -5885,8 +5926,11 @@
       <c r="K13">
         <v>13866</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -5920,8 +5964,11 @@
       <c r="K14">
         <v>13655</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -5955,8 +6002,11 @@
       <c r="K15">
         <v>14318</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -5990,8 +6040,11 @@
       <c r="K16">
         <v>16310</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -6025,8 +6078,11 @@
       <c r="K17">
         <v>14882</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -6060,8 +6116,11 @@
       <c r="K18">
         <v>14610</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -6095,8 +6154,11 @@
       <c r="K19">
         <v>14265</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -6130,8 +6192,11 @@
       <c r="K20">
         <v>14600</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -6165,8 +6230,11 @@
       <c r="K21">
         <v>14563</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -6200,8 +6268,11 @@
       <c r="K22">
         <v>14880</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -6235,8 +6306,11 @@
       <c r="K23">
         <v>14625</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -6270,8 +6344,11 @@
       <c r="K24">
         <v>14120</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -6305,8 +6382,11 @@
       <c r="K25">
         <v>14050</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -6340,8 +6420,11 @@
       <c r="K26">
         <v>14030</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -6375,8 +6458,11 @@
       <c r="K27">
         <v>14235</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -6410,8 +6496,11 @@
       <c r="K28">
         <v>14525</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -6445,8 +6534,11 @@
       <c r="K29">
         <v>14445</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -6480,8 +6572,11 @@
       <c r="K30">
         <v>14280</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -6515,8 +6610,11 @@
       <c r="K31">
         <v>14500</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -6550,8 +6648,11 @@
       <c r="K32">
         <v>14463</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -6585,8 +6686,11 @@
       <c r="K33">
         <v>14268</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -6620,8 +6724,11 @@
       <c r="K34">
         <v>14313</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -6655,8 +6762,11 @@
       <c r="K35">
         <v>14168</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -6690,8 +6800,11 @@
       <c r="K36">
         <v>14332</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -6725,8 +6838,11 @@
       <c r="K37">
         <v>14263</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -6760,8 +6876,11 @@
       <c r="K38">
         <v>14368</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -6795,8 +6914,11 @@
       <c r="K39">
         <v>14382</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -6827,8 +6949,11 @@
       <c r="K40">
         <v>14363</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -6859,8 +6984,11 @@
       <c r="K41">
         <v>14482</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -6891,8 +7019,11 @@
       <c r="K42">
         <v>14578</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -6923,8 +7054,11 @@
       <c r="K43">
         <v>14903</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -6955,8 +7089,11 @@
       <c r="K44">
         <v>14834</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -6987,8 +7124,11 @@
       <c r="K45">
         <v>14843</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -7019,8 +7159,11 @@
       <c r="K46">
         <v>15227</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -7051,8 +7194,11 @@
       <c r="K47">
         <v>15598</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
@@ -7083,8 +7229,11 @@
       <c r="K48">
         <v>15732</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
@@ -7115,8 +7264,11 @@
       <c r="K49">
         <v>15573</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
@@ -7147,8 +7299,11 @@
       <c r="K50">
         <v>14991</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -7179,8 +7334,11 @@
       <c r="K51">
         <v>15261</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -7211,8 +7369,11 @@
       <c r="K52">
         <v>14996</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>88</v>
       </c>
@@ -7243,8 +7404,11 @@
       <c r="K53">
         <v>14674</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -7275,8 +7439,11 @@
       <c r="K54">
         <v>14994</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
@@ -7307,8 +7474,11 @@
       <c r="K55">
         <v>15066</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20230701</v>
       </c>
@@ -7318,8 +7488,11 @@
       <c r="K56">
         <v>15080</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20230801</v>
       </c>
@@ -7329,8 +7502,11 @@
       <c r="K57">
         <v>15230</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20230901</v>
       </c>
@@ -7340,8 +7516,11 @@
       <c r="K58">
         <v>15460</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20231001</v>
       </c>
@@ -7350,6 +7529,9 @@
       </c>
       <c r="K59">
         <v>15885</v>
+      </c>
+      <c r="L59">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/aldi/aldi.xlsx
+++ b/aldi/aldi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\imedkrisna.github.io\aldi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563867EB-1F4D-4F7C-A642-5E8FAEF85060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6C26E-D524-4DA2-A4C0-368F9F5BF095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="107">
   <si>
     <t>Pertamax (RON 92)</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>bi</t>
+  </si>
+  <si>
+    <t>qopec</t>
   </si>
 </sst>
 </file>
@@ -5428,15 +5431,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEAD530-EAC0-4DB5-A7AA-FF593DF48293}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -5473,8 +5476,11 @@
       <c r="L1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -5511,8 +5517,11 @@
       <c r="L2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>32.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -5549,8 +5558,11 @@
       <c r="L3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -5587,8 +5599,11 @@
       <c r="L4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>31.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -5625,8 +5640,11 @@
       <c r="L5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>31.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -5663,8 +5681,11 @@
       <c r="L6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>31.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -5701,8 +5722,11 @@
       <c r="L7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>31.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -5739,8 +5763,11 @@
       <c r="L8">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -5777,8 +5804,11 @@
       <c r="L9">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -5815,8 +5845,11 @@
       <c r="L10">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5853,8 +5886,11 @@
       <c r="L11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -5891,8 +5927,11 @@
       <c r="L12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -5929,8 +5968,11 @@
       <c r="L13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>30.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -5967,8 +6009,11 @@
       <c r="L14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -6005,8 +6050,11 @@
       <c r="L15">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>29.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -6043,8 +6091,11 @@
       <c r="L16">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>30.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -6081,8 +6132,11 @@
       <c r="L17">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>32.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -6119,8 +6173,11 @@
       <c r="L18">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -6157,8 +6214,11 @@
       <c r="L19">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -6195,8 +6255,11 @@
       <c r="L20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -6233,8 +6296,11 @@
       <c r="L21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>25.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -6271,8 +6337,11 @@
       <c r="L22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>25.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -6309,8 +6378,11 @@
       <c r="L23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>26.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -6347,8 +6419,11 @@
       <c r="L24">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -6385,8 +6460,11 @@
       <c r="L25">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -6423,8 +6501,11 @@
       <c r="L26">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -6461,8 +6542,11 @@
       <c r="L27">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -6499,8 +6583,11 @@
       <c r="L28">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -6537,8 +6624,11 @@
       <c r="L29">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -6575,8 +6665,11 @@
       <c r="L30">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>27.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -6613,8 +6706,11 @@
       <c r="L31">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -6651,8 +6747,11 @@
       <c r="L32">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>28.76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -6689,8 +6788,11 @@
       <c r="L33">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>28.76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -6727,8 +6829,11 @@
       <c r="L34">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -6765,8 +6870,11 @@
       <c r="L35">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>29.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -6803,8 +6911,11 @@
       <c r="L36">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>29.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -6841,8 +6952,11 @@
       <c r="L37">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>30.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -6879,8 +6993,11 @@
       <c r="L38">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -6917,8 +7034,11 @@
       <c r="L39">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -6952,8 +7072,11 @@
       <c r="L40">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -6987,8 +7110,11 @@
       <c r="L41">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -7022,8 +7148,11 @@
       <c r="L42">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -7057,8 +7186,11 @@
       <c r="L43">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>30.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -7092,8 +7224,11 @@
       <c r="L44">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -7127,8 +7262,11 @@
       <c r="L45">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>31.61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -7162,8 +7300,11 @@
       <c r="L46">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>31.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -7197,8 +7338,11 @@
       <c r="L47">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>31.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
@@ -7232,8 +7376,11 @@
       <c r="L48">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>30.82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
@@ -7267,8 +7414,11 @@
       <c r="L49">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
@@ -7302,8 +7452,11 @@
       <c r="L50">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -7337,8 +7490,11 @@
       <c r="L51">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>30.63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -7372,8 +7528,11 @@
       <c r="L52">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>30.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>88</v>
       </c>
@@ -7407,8 +7566,11 @@
       <c r="L53">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>30.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -7442,8 +7604,11 @@
       <c r="L54">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>30.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
@@ -7478,7 +7643,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20230701</v>
       </c>
@@ -7492,7 +7657,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20230801</v>
       </c>
@@ -7506,7 +7671,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20230901</v>
       </c>
@@ -7520,7 +7685,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20231001</v>
       </c>

--- a/aldi/aldi.xlsx
+++ b/aldi/aldi.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\imedkrisna.github.io\aldi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6C26E-D524-4DA2-A4C0-368F9F5BF095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B1E1A-01F1-4A03-82E9-75FF1246FE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="data" sheetId="4" r:id="rId4"/>
+    <sheet name="rate" sheetId="5" r:id="rId4"/>
+    <sheet name="data" sheetId="4" r:id="rId5"/>
+    <sheet name="produksi" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="131">
   <si>
     <t>Pertamax (RON 92)</t>
   </si>
@@ -349,6 +351,78 @@
   </si>
   <si>
     <t>qopec</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jun*</t>
+  </si>
+  <si>
+    <t>Jul*</t>
+  </si>
+  <si>
+    <t>Aug*</t>
+  </si>
+  <si>
+    <t>Sep*</t>
+  </si>
+  <si>
+    <t>Oct**</t>
+  </si>
+  <si>
+    <t>Amerika Serikat</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
+  </si>
+  <si>
+    <t>Jepang</t>
+  </si>
+  <si>
+    <t>Inggris</t>
+  </si>
+  <si>
+    <t>RRC</t>
+  </si>
+  <si>
+    <t>Korea Selatan</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ron 88 </t>
   </si>
 </sst>
 </file>
@@ -358,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +471,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,9 +505,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma [0] 2 19 2 2 4" xfId="4" xr:uid="{4CB85D3D-8DCE-49D6-B2AB-E1D803B7C240}"/>
@@ -5430,16 +5514,1480 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7D9975-93EA-4C98-9341-F27FFB9DC709}">
+  <dimension ref="A1:BG10"/>
+  <sheetViews>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:BG10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="N1">
+        <v>2020</v>
+      </c>
+      <c r="Z1">
+        <v>2021</v>
+      </c>
+      <c r="AL1">
+        <v>2022</v>
+      </c>
+      <c r="BG1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+      <c r="H4">
+        <v>2.25</v>
+      </c>
+      <c r="I4">
+        <v>2.25</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1.75</v>
+      </c>
+      <c r="L4">
+        <v>1.75</v>
+      </c>
+      <c r="M4">
+        <v>1.75</v>
+      </c>
+      <c r="N4">
+        <v>1.75</v>
+      </c>
+      <c r="O4">
+        <v>1.75</v>
+      </c>
+      <c r="P4">
+        <v>0.25</v>
+      </c>
+      <c r="Q4">
+        <v>0.25</v>
+      </c>
+      <c r="R4">
+        <v>0.25</v>
+      </c>
+      <c r="S4">
+        <v>0.25</v>
+      </c>
+      <c r="T4">
+        <v>0.25</v>
+      </c>
+      <c r="U4">
+        <v>0.25</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>0.25</v>
+      </c>
+      <c r="X4">
+        <v>0.25</v>
+      </c>
+      <c r="Y4">
+        <v>0.25</v>
+      </c>
+      <c r="Z4">
+        <v>0.25</v>
+      </c>
+      <c r="AA4">
+        <v>0.25</v>
+      </c>
+      <c r="AB4">
+        <v>0.25</v>
+      </c>
+      <c r="AC4">
+        <v>0.25</v>
+      </c>
+      <c r="AD4">
+        <v>0.25</v>
+      </c>
+      <c r="AE4">
+        <v>0.25</v>
+      </c>
+      <c r="AF4">
+        <v>0.25</v>
+      </c>
+      <c r="AG4">
+        <v>0.25</v>
+      </c>
+      <c r="AH4">
+        <v>0.25</v>
+      </c>
+      <c r="AI4">
+        <v>0.25</v>
+      </c>
+      <c r="AJ4">
+        <v>0.25</v>
+      </c>
+      <c r="AK4">
+        <v>0.25</v>
+      </c>
+      <c r="AL4">
+        <v>0.25</v>
+      </c>
+      <c r="AM4">
+        <v>0.25</v>
+      </c>
+      <c r="AN4">
+        <v>0.5</v>
+      </c>
+      <c r="AO4">
+        <v>0.5</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>2.5</v>
+      </c>
+      <c r="AS4">
+        <v>2.5</v>
+      </c>
+      <c r="AT4">
+        <v>3.25</v>
+      </c>
+      <c r="AU4">
+        <v>3.25</v>
+      </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AW4">
+        <v>4.5</v>
+      </c>
+      <c r="AX4">
+        <v>4.5</v>
+      </c>
+      <c r="AY4">
+        <v>4.75</v>
+      </c>
+      <c r="AZ4">
+        <v>5</v>
+      </c>
+      <c r="BA4">
+        <v>5</v>
+      </c>
+      <c r="BB4">
+        <v>5.25</v>
+      </c>
+      <c r="BC4">
+        <v>5.25</v>
+      </c>
+      <c r="BD4">
+        <v>5.5</v>
+      </c>
+      <c r="BE4">
+        <v>5.5</v>
+      </c>
+      <c r="BF4">
+        <v>5.5</v>
+      </c>
+      <c r="BG4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0.5</v>
+      </c>
+      <c r="AS5">
+        <v>0.5</v>
+      </c>
+      <c r="AT5">
+        <v>1.25</v>
+      </c>
+      <c r="AU5">
+        <v>2</v>
+      </c>
+      <c r="AV5">
+        <v>2</v>
+      </c>
+      <c r="AW5">
+        <v>2.5</v>
+      </c>
+      <c r="AX5">
+        <v>2.5</v>
+      </c>
+      <c r="AY5">
+        <v>3</v>
+      </c>
+      <c r="AZ5">
+        <v>3.5</v>
+      </c>
+      <c r="BA5">
+        <v>3.5</v>
+      </c>
+      <c r="BB5">
+        <v>3.75</v>
+      </c>
+      <c r="BC5">
+        <v>4</v>
+      </c>
+      <c r="BD5">
+        <v>4.25</v>
+      </c>
+      <c r="BE5">
+        <v>4.25</v>
+      </c>
+      <c r="BF5">
+        <v>4.5</v>
+      </c>
+      <c r="BG5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>0.1</v>
+      </c>
+      <c r="L6">
+        <v>0.1</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+      <c r="O6">
+        <v>0.1</v>
+      </c>
+      <c r="P6">
+        <v>0.1</v>
+      </c>
+      <c r="Q6">
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <v>0.1</v>
+      </c>
+      <c r="S6">
+        <v>0.1</v>
+      </c>
+      <c r="T6">
+        <v>0.1</v>
+      </c>
+      <c r="U6">
+        <v>0.1</v>
+      </c>
+      <c r="V6">
+        <v>0.1</v>
+      </c>
+      <c r="W6">
+        <v>0.1</v>
+      </c>
+      <c r="X6">
+        <v>0.1</v>
+      </c>
+      <c r="Y6">
+        <v>0.1</v>
+      </c>
+      <c r="Z6">
+        <v>0.1</v>
+      </c>
+      <c r="AA6">
+        <v>0.1</v>
+      </c>
+      <c r="AB6">
+        <v>0.1</v>
+      </c>
+      <c r="AC6">
+        <v>0.1</v>
+      </c>
+      <c r="AD6">
+        <v>0.1</v>
+      </c>
+      <c r="AE6">
+        <v>0.1</v>
+      </c>
+      <c r="AF6">
+        <v>0.1</v>
+      </c>
+      <c r="AG6">
+        <v>0.1</v>
+      </c>
+      <c r="AH6">
+        <v>0.1</v>
+      </c>
+      <c r="AI6">
+        <v>0.1</v>
+      </c>
+      <c r="AJ6">
+        <v>0.1</v>
+      </c>
+      <c r="AK6">
+        <v>0.1</v>
+      </c>
+      <c r="AL6">
+        <v>0.1</v>
+      </c>
+      <c r="AM6">
+        <v>0.1</v>
+      </c>
+      <c r="AN6">
+        <v>0.1</v>
+      </c>
+      <c r="AO6">
+        <v>0.1</v>
+      </c>
+      <c r="AP6">
+        <v>0.1</v>
+      </c>
+      <c r="AQ6">
+        <v>0.1</v>
+      </c>
+      <c r="AR6">
+        <v>0.1</v>
+      </c>
+      <c r="AS6">
+        <v>0.1</v>
+      </c>
+      <c r="AT6">
+        <v>0.1</v>
+      </c>
+      <c r="AU6">
+        <v>0.1</v>
+      </c>
+      <c r="AV6">
+        <v>0.1</v>
+      </c>
+      <c r="AW6">
+        <v>0.1</v>
+      </c>
+      <c r="AX6">
+        <v>0.1</v>
+      </c>
+      <c r="AY6">
+        <v>0.1</v>
+      </c>
+      <c r="AZ6">
+        <v>0.1</v>
+      </c>
+      <c r="BA6">
+        <v>0.1</v>
+      </c>
+      <c r="BB6">
+        <v>0.1</v>
+      </c>
+      <c r="BC6">
+        <v>0.1</v>
+      </c>
+      <c r="BD6">
+        <v>0.1</v>
+      </c>
+      <c r="BE6">
+        <v>0.1</v>
+      </c>
+      <c r="BF6">
+        <v>0.1</v>
+      </c>
+      <c r="BG6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <v>0.75</v>
+      </c>
+      <c r="C7">
+        <v>0.75</v>
+      </c>
+      <c r="D7">
+        <v>0.75</v>
+      </c>
+      <c r="E7">
+        <v>0.75</v>
+      </c>
+      <c r="F7">
+        <v>0.75</v>
+      </c>
+      <c r="G7">
+        <v>0.75</v>
+      </c>
+      <c r="H7">
+        <v>0.75</v>
+      </c>
+      <c r="I7">
+        <v>0.75</v>
+      </c>
+      <c r="J7">
+        <v>0.75</v>
+      </c>
+      <c r="K7">
+        <v>0.75</v>
+      </c>
+      <c r="L7">
+        <v>0.75</v>
+      </c>
+      <c r="M7">
+        <v>0.75</v>
+      </c>
+      <c r="N7">
+        <v>0.75</v>
+      </c>
+      <c r="O7">
+        <v>0.75</v>
+      </c>
+      <c r="P7">
+        <v>0.1</v>
+      </c>
+      <c r="Q7">
+        <v>0.1</v>
+      </c>
+      <c r="R7">
+        <v>0.1</v>
+      </c>
+      <c r="S7">
+        <v>0.1</v>
+      </c>
+      <c r="T7">
+        <v>0.1</v>
+      </c>
+      <c r="U7">
+        <v>0.1</v>
+      </c>
+      <c r="V7">
+        <v>0.1</v>
+      </c>
+      <c r="W7">
+        <v>0.1</v>
+      </c>
+      <c r="X7">
+        <v>0.1</v>
+      </c>
+      <c r="Y7">
+        <v>0.1</v>
+      </c>
+      <c r="Z7">
+        <v>0.1</v>
+      </c>
+      <c r="AA7">
+        <v>0.1</v>
+      </c>
+      <c r="AB7">
+        <v>0.1</v>
+      </c>
+      <c r="AC7">
+        <v>0.1</v>
+      </c>
+      <c r="AD7">
+        <v>0.1</v>
+      </c>
+      <c r="AE7">
+        <v>0.1</v>
+      </c>
+      <c r="AF7">
+        <v>0.1</v>
+      </c>
+      <c r="AG7">
+        <v>0.1</v>
+      </c>
+      <c r="AH7">
+        <v>0.1</v>
+      </c>
+      <c r="AI7">
+        <v>0.1</v>
+      </c>
+      <c r="AJ7">
+        <v>0.1</v>
+      </c>
+      <c r="AK7">
+        <v>0.25</v>
+      </c>
+      <c r="AL7">
+        <v>0.25</v>
+      </c>
+      <c r="AM7">
+        <v>0.5</v>
+      </c>
+      <c r="AN7">
+        <v>0.75</v>
+      </c>
+      <c r="AO7">
+        <v>0.75</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1.25</v>
+      </c>
+      <c r="AR7">
+        <v>1.25</v>
+      </c>
+      <c r="AS7">
+        <v>1.75</v>
+      </c>
+      <c r="AT7">
+        <v>2.25</v>
+      </c>
+      <c r="AU7">
+        <v>2.25</v>
+      </c>
+      <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7">
+        <v>3.5</v>
+      </c>
+      <c r="AX7">
+        <v>3.5</v>
+      </c>
+      <c r="AY7">
+        <v>4</v>
+      </c>
+      <c r="AZ7">
+        <v>4.25</v>
+      </c>
+      <c r="BA7">
+        <v>4.25</v>
+      </c>
+      <c r="BB7">
+        <v>4.5</v>
+      </c>
+      <c r="BC7">
+        <v>5</v>
+      </c>
+      <c r="BD7">
+        <v>5</v>
+      </c>
+      <c r="BE7">
+        <v>5.25</v>
+      </c>
+      <c r="BF7">
+        <v>5.25</v>
+      </c>
+      <c r="BG7">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="L8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="P8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Q8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="R8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="T8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="U8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="V8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="W8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="X8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AA8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AB8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AC8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AD8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AE8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AF8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AG8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AH8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AI8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AJ8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AK8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AL8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AM8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AN8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AO8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AP8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AQ8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AR8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AS8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AT8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AU8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AV8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AW8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AX8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AY8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AZ8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="BA8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="BB8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="BC8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="BD8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="BE8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="BF8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="BG8">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9">
+        <v>1.75</v>
+      </c>
+      <c r="C9">
+        <v>1.75</v>
+      </c>
+      <c r="D9">
+        <v>1.75</v>
+      </c>
+      <c r="E9">
+        <v>1.75</v>
+      </c>
+      <c r="F9">
+        <v>1.75</v>
+      </c>
+      <c r="G9">
+        <v>1.75</v>
+      </c>
+      <c r="H9">
+        <v>1.5</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="J9">
+        <v>1.5</v>
+      </c>
+      <c r="K9">
+        <v>1.25</v>
+      </c>
+      <c r="L9">
+        <v>1.25</v>
+      </c>
+      <c r="M9">
+        <v>1.25</v>
+      </c>
+      <c r="N9">
+        <v>1.25</v>
+      </c>
+      <c r="O9">
+        <v>1.25</v>
+      </c>
+      <c r="P9">
+        <v>0.75</v>
+      </c>
+      <c r="Q9">
+        <v>0.75</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <v>0.5</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>0.5</v>
+      </c>
+      <c r="Z9">
+        <v>0.5</v>
+      </c>
+      <c r="AA9">
+        <v>0.5</v>
+      </c>
+      <c r="AB9">
+        <v>0.5</v>
+      </c>
+      <c r="AC9">
+        <v>0.5</v>
+      </c>
+      <c r="AD9">
+        <v>0.5</v>
+      </c>
+      <c r="AE9">
+        <v>0.5</v>
+      </c>
+      <c r="AF9">
+        <v>0.5</v>
+      </c>
+      <c r="AG9">
+        <v>0.75</v>
+      </c>
+      <c r="AH9">
+        <v>0.75</v>
+      </c>
+      <c r="AI9">
+        <v>0.75</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1.25</v>
+      </c>
+      <c r="AM9">
+        <v>1.25</v>
+      </c>
+      <c r="AN9">
+        <v>1.25</v>
+      </c>
+      <c r="AO9">
+        <v>1.5</v>
+      </c>
+      <c r="AP9">
+        <v>1.75</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>2.25</v>
+      </c>
+      <c r="AS9">
+        <v>2.5</v>
+      </c>
+      <c r="AT9">
+        <v>2.5</v>
+      </c>
+      <c r="AU9">
+        <v>3</v>
+      </c>
+      <c r="AV9">
+        <v>3.25</v>
+      </c>
+      <c r="AW9">
+        <v>3.25</v>
+      </c>
+      <c r="AX9">
+        <v>3.5</v>
+      </c>
+      <c r="AY9">
+        <v>3.5</v>
+      </c>
+      <c r="AZ9">
+        <v>3.5</v>
+      </c>
+      <c r="BA9">
+        <v>3.5</v>
+      </c>
+      <c r="BB9">
+        <v>3.5</v>
+      </c>
+      <c r="BC9">
+        <v>3.5</v>
+      </c>
+      <c r="BD9">
+        <v>3.5</v>
+      </c>
+      <c r="BE9">
+        <v>3.5</v>
+      </c>
+      <c r="BF9">
+        <v>3.5</v>
+      </c>
+      <c r="BG9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEAD530-EAC0-4DB5-A7AA-FF593DF48293}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -5479,8 +7027,29 @@
       <c r="M1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -5497,16 +7066,16 @@
         <v>12000</v>
       </c>
       <c r="F2">
-        <v>1.1994878999999899E-2</v>
+        <v>4.4711400000000001</v>
       </c>
       <c r="G2">
-        <v>1.5491634917999999</v>
+        <v>4.8989999999999999E-2</v>
       </c>
       <c r="H2">
-        <v>0.35087857251999999</v>
+        <v>3.1516599056010102</v>
       </c>
       <c r="I2">
-        <v>2.563810293E-2</v>
+        <v>0.10402</v>
       </c>
       <c r="J2">
         <v>2.5</v>
@@ -5520,8 +7089,29 @@
       <c r="M2">
         <v>32.32</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>2.5</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.1</v>
+      </c>
+      <c r="Q2">
+        <v>0.75</v>
+      </c>
+      <c r="R2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S2">
+        <v>1.75</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -5538,16 +7128,16 @@
         <v>11200</v>
       </c>
       <c r="F3">
-        <v>1.2504368999999901E-2</v>
+        <v>4.4671099999999999</v>
       </c>
       <c r="G3">
-        <v>1.41076184402</v>
+        <v>6.4101000000000005E-2</v>
       </c>
       <c r="H3">
-        <v>0.31580322148000001</v>
+        <v>2.0898110581371898</v>
       </c>
       <c r="I3">
-        <v>2.4905132789999999E-2</v>
+        <v>3.4691E-2</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -5561,8 +7151,29 @@
       <c r="M3">
         <v>32.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>2.5</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>0.75</v>
+      </c>
+      <c r="R3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S3">
+        <v>1.75</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -5579,16 +7190,16 @@
         <v>11200</v>
       </c>
       <c r="F4">
-        <v>1.53014080000002E-2</v>
+        <v>4.7073729999999996</v>
       </c>
       <c r="G4">
-        <v>1.5520649603300001</v>
+        <v>0.10143000000000001</v>
       </c>
       <c r="H4">
-        <v>0.34449187385000002</v>
+        <v>2.8335265302555102</v>
       </c>
       <c r="I4">
-        <v>2.769407246E-2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2.5</v>
@@ -5602,8 +7213,29 @@
       <c r="M4">
         <v>31.78</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>2.5</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.1</v>
+      </c>
+      <c r="Q4">
+        <v>0.75</v>
+      </c>
+      <c r="R4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S4">
+        <v>1.75</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -5620,16 +7252,16 @@
         <v>11200</v>
       </c>
       <c r="F5">
-        <v>1.0614616999999899E-2</v>
+        <v>4.1932919999999996</v>
       </c>
       <c r="G5">
-        <v>1.5092687287</v>
+        <v>7.4557999999999999E-2</v>
       </c>
       <c r="H5">
-        <v>0.33954387623999999</v>
+        <v>3.2312303642674598</v>
       </c>
       <c r="I5">
-        <v>2.6057246999999999E-2</v>
+        <v>9.1186000000000003E-2</v>
       </c>
       <c r="J5">
         <v>2.5</v>
@@ -5643,8 +7275,29 @@
       <c r="M5">
         <v>31.83</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>2.5</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.1</v>
+      </c>
+      <c r="Q5">
+        <v>0.75</v>
+      </c>
+      <c r="R5">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S5">
+        <v>1.75</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -5661,16 +7314,16 @@
         <v>11200</v>
       </c>
       <c r="F6">
-        <v>1.35563350000002E-2</v>
+        <v>4.499841</v>
       </c>
       <c r="G6">
-        <v>1.57739603686</v>
+        <v>8.5792999999999994E-2</v>
       </c>
       <c r="H6">
-        <v>0.36088006253999999</v>
+        <v>3.4400652549194501</v>
       </c>
       <c r="I6">
-        <v>2.8798280419999999E-2</v>
+        <v>9.0956999999999996E-2</v>
       </c>
       <c r="J6">
         <v>2.5</v>
@@ -5684,8 +7337,29 @@
       <c r="M6">
         <v>31.46</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.1</v>
+      </c>
+      <c r="Q6">
+        <v>0.75</v>
+      </c>
+      <c r="R6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S6">
+        <v>1.75</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -5702,16 +7376,16 @@
         <v>11200</v>
       </c>
       <c r="F7">
-        <v>1.2196594E-2</v>
+        <v>4.2779559999999996</v>
       </c>
       <c r="G7">
-        <v>1.62834677508</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.38044980972999998</v>
+        <v>3.0842070031466302</v>
       </c>
       <c r="I7">
-        <v>2.5129736999999999E-2</v>
+        <v>0.12894600000000001</v>
       </c>
       <c r="J7">
         <v>2.5</v>
@@ -5725,8 +7399,29 @@
       <c r="M7">
         <v>31.57</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>2.5</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.1</v>
+      </c>
+      <c r="Q7">
+        <v>0.75</v>
+      </c>
+      <c r="R7">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S7">
+        <v>1.75</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -5743,16 +7438,16 @@
         <v>11200</v>
       </c>
       <c r="F8">
-        <v>2.3139599999998299E-3</v>
+        <v>4.1363760000000003</v>
       </c>
       <c r="G8">
-        <v>1.62201715487</v>
+        <v>9.0554999999999997E-2</v>
       </c>
       <c r="H8">
-        <v>0.34823056479999998</v>
+        <v>4.5320183422308196</v>
       </c>
       <c r="I8">
-        <v>2.8558917279999999E-2</v>
+        <v>9.0830999999999995E-2</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -5766,8 +7461,29 @@
       <c r="M8">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>2.25</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.1</v>
+      </c>
+      <c r="Q8">
+        <v>0.75</v>
+      </c>
+      <c r="R8">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S8">
+        <v>1.5</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -5784,16 +7500,16 @@
         <v>11200</v>
       </c>
       <c r="F9">
-        <v>4.1947559999998899E-3</v>
+        <v>3.7244130000000002</v>
       </c>
       <c r="G9">
-        <v>1.6683050964799999</v>
+        <v>4.9461999999999999E-2</v>
       </c>
       <c r="H9">
-        <v>0.36098017281</v>
+        <v>4.7867367702957804</v>
       </c>
       <c r="I9">
-        <v>2.920811572E-2</v>
+        <v>0.13442599999999999</v>
       </c>
       <c r="J9">
         <v>2.25</v>
@@ -5807,8 +7523,29 @@
       <c r="M9">
         <v>31.31</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>2.25</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.1</v>
+      </c>
+      <c r="Q9">
+        <v>0.75</v>
+      </c>
+      <c r="R9">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S9">
+        <v>1.5</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -5825,16 +7562,16 @@
         <v>11200</v>
       </c>
       <c r="F10">
-        <v>4.3990780000000996E-3</v>
+        <v>2.6833779999999998</v>
       </c>
       <c r="G10">
-        <v>1.62490578343</v>
+        <v>6.8401000000000003E-2</v>
       </c>
       <c r="H10">
-        <v>0.33777058800999998</v>
+        <v>5.5623101636249199</v>
       </c>
       <c r="I10">
-        <v>2.680498009E-2</v>
+        <v>8.1423999999999996E-2</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -5848,8 +7585,29 @@
       <c r="M10">
         <v>29.74</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.1</v>
+      </c>
+      <c r="Q10">
+        <v>0.75</v>
+      </c>
+      <c r="R10">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S10">
+        <v>1.5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5866,16 +7624,16 @@
         <v>11200</v>
       </c>
       <c r="F11">
-        <v>1.48478730000001E-2</v>
+        <v>2.6709399999999999</v>
       </c>
       <c r="G11">
-        <v>1.7412113019</v>
+        <v>0.147314</v>
       </c>
       <c r="H11">
-        <v>0.37549909881999999</v>
+        <v>4.1186369408432997</v>
       </c>
       <c r="I11">
-        <v>2.9394675629999999E-2</v>
+        <v>6.6831000000000002E-2</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -5889,8 +7647,29 @@
       <c r="M11">
         <v>31.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>1.75</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.1</v>
+      </c>
+      <c r="Q11">
+        <v>0.75</v>
+      </c>
+      <c r="R11">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S11">
+        <v>1.25</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -5907,16 +7686,16 @@
         <v>11200</v>
       </c>
       <c r="F12">
-        <v>1.6146111000000098E-2</v>
+        <v>3.2540978230659001</v>
       </c>
       <c r="G12">
-        <v>1.7189925185699999</v>
+        <v>5.5377000000000003E-2</v>
       </c>
       <c r="H12">
-        <v>0.36763128273000001</v>
+        <v>5.0521764868632504</v>
       </c>
       <c r="I12">
-        <v>2.7148635290000001E-2</v>
+        <v>0.110432</v>
       </c>
       <c r="J12">
         <v>1.75</v>
@@ -5930,8 +7709,29 @@
       <c r="M12">
         <v>31.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>1.75</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.1</v>
+      </c>
+      <c r="Q12">
+        <v>0.75</v>
+      </c>
+      <c r="R12">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S12">
+        <v>1.25</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -5948,16 +7748,16 @@
         <v>11200</v>
       </c>
       <c r="F13">
-        <v>1.46069739999997E-2</v>
+        <v>7.2941024575875399</v>
       </c>
       <c r="G13">
-        <v>1.8083849277399973</v>
+        <v>0.14222399999999999</v>
       </c>
       <c r="H13">
-        <v>0.37218354167000001</v>
+        <v>2.52506420605159</v>
       </c>
       <c r="I13">
-        <v>2.7230696500000075E-2</v>
+        <v>0.117573</v>
       </c>
       <c r="J13">
         <v>1.75</v>
@@ -5971,8 +7771,29 @@
       <c r="M13">
         <v>30.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>1.75</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>0.75</v>
+      </c>
+      <c r="R13">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S13">
+        <v>1.25</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -5989,16 +7810,16 @@
         <v>9900</v>
       </c>
       <c r="F14">
-        <v>1.2959070684000151E-2</v>
+        <v>3.5379710000000002</v>
       </c>
       <c r="G14">
-        <v>1.6989900023300002</v>
+        <v>0.122014</v>
       </c>
       <c r="H14">
-        <v>0.36308612248</v>
+        <v>5.1246030000000005</v>
       </c>
       <c r="I14">
-        <v>3.0478837569999997E-2</v>
+        <v>0.16833799999999999</v>
       </c>
       <c r="J14">
         <v>1.75</v>
@@ -6012,8 +7833,29 @@
       <c r="M14">
         <v>30.64</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>1.75</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.1</v>
+      </c>
+      <c r="Q14">
+        <v>0.75</v>
+      </c>
+      <c r="R14">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S14">
+        <v>1.25</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -6030,16 +7872,16 @@
         <v>9850</v>
       </c>
       <c r="F15">
-        <v>1.341749706999984E-2</v>
+        <v>3.2501250000000002</v>
       </c>
       <c r="G15">
-        <v>1.5902643706999999</v>
+        <v>0.10804000000000001</v>
       </c>
       <c r="H15">
-        <v>0.35987723681000017</v>
+        <v>4.7464440000000003</v>
       </c>
       <c r="I15">
-        <v>2.885750749E-2</v>
+        <v>0.122738</v>
       </c>
       <c r="J15">
         <v>1.75</v>
@@ -6053,8 +7895,29 @@
       <c r="M15">
         <v>29.88</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>1.75</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.1</v>
+      </c>
+      <c r="Q15">
+        <v>0.75</v>
+      </c>
+      <c r="R15">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S15">
+        <v>1.25</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -6071,16 +7934,16 @@
         <v>9850</v>
       </c>
       <c r="F16">
-        <v>1.354208968799997E-2</v>
+        <v>3.919063</v>
       </c>
       <c r="G16">
-        <v>1.5035692742299995</v>
+        <v>7.3161000000000004E-2</v>
       </c>
       <c r="H16">
-        <v>0.34066420373</v>
+        <v>4.7808978099999999</v>
       </c>
       <c r="I16">
-        <v>2.8163416619999999E-2</v>
+        <v>0.25541700000000001</v>
       </c>
       <c r="J16">
         <v>0.25</v>
@@ -6094,8 +7957,29 @@
       <c r="M16">
         <v>30.11</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>0.25</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.1</v>
+      </c>
+      <c r="Q16">
+        <v>0.1</v>
+      </c>
+      <c r="R16">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S16">
+        <v>0.75</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -6112,16 +7996,16 @@
         <v>9850</v>
       </c>
       <c r="F17">
-        <v>1.3589451259999885E-2</v>
+        <v>3.8755730000000002</v>
       </c>
       <c r="G17">
-        <v>1.0755070655100005</v>
+        <v>6.3459000000000002E-2</v>
       </c>
       <c r="H17">
-        <v>0.22575986259000008</v>
+        <v>2.8641704579999998</v>
       </c>
       <c r="I17">
-        <v>1.6169183099999995E-2</v>
+        <v>6.0687999999999999E-2</v>
       </c>
       <c r="J17">
         <v>0.25</v>
@@ -6135,8 +8019,29 @@
       <c r="M17">
         <v>32.11</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>0.25</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.1</v>
+      </c>
+      <c r="Q17">
+        <v>0.1</v>
+      </c>
+      <c r="R17">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S17">
+        <v>0.75</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -6153,16 +8058,16 @@
         <v>9850</v>
       </c>
       <c r="F18">
-        <v>1.4336440999999867E-2</v>
+        <v>3.6806049999999999</v>
       </c>
       <c r="G18">
-        <v>1.20513523029</v>
+        <v>8.8721999999999995E-2</v>
       </c>
       <c r="H18">
-        <v>0.27258801185999998</v>
+        <v>3.1606827110000002</v>
       </c>
       <c r="I18">
-        <v>2.0517148870000002E-2</v>
+        <v>0.105728</v>
       </c>
       <c r="J18">
         <v>0.25</v>
@@ -6176,8 +8081,29 @@
       <c r="M18">
         <v>26.21</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>0.25</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.1</v>
+      </c>
+      <c r="Q18">
+        <v>0.1</v>
+      </c>
+      <c r="R18">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -6194,16 +8120,16 @@
         <v>9850</v>
       </c>
       <c r="F19">
-        <v>1.6629956000000057E-2</v>
+        <v>3.5197859999999999</v>
       </c>
       <c r="G19">
-        <v>1.33704915077</v>
+        <v>0.100803</v>
       </c>
       <c r="H19">
-        <v>0.30330579677999997</v>
+        <v>3.337053687</v>
       </c>
       <c r="I19">
-        <v>2.4708783300000002E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="J19">
         <v>0.25</v>
@@ -6217,8 +8143,29 @@
       <c r="M19">
         <v>24.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>0.25</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.1</v>
+      </c>
+      <c r="Q19">
+        <v>0.1</v>
+      </c>
+      <c r="R19">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S19">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -6235,16 +8182,16 @@
         <v>9850</v>
       </c>
       <c r="F20">
-        <v>1.3500261000000346E-2</v>
+        <v>3.658426</v>
       </c>
       <c r="G20">
-        <v>1.5054104744999999</v>
+        <v>8.2050999999999999E-2</v>
       </c>
       <c r="H20">
-        <v>0.34299867026000003</v>
+        <v>3.0601363030000002</v>
       </c>
       <c r="I20">
-        <v>3.0187539689999994E-2</v>
+        <v>4.7793000000000002E-2</v>
       </c>
       <c r="J20">
         <v>0.25</v>
@@ -6258,8 +8205,29 @@
       <c r="M20">
         <v>24.89</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>0.25</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.1</v>
+      </c>
+      <c r="Q20">
+        <v>0.1</v>
+      </c>
+      <c r="R20">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -6276,16 +8244,16 @@
         <v>9850</v>
       </c>
       <c r="F21">
-        <v>1.3687854999999804E-2</v>
+        <v>3.0484840000000002</v>
       </c>
       <c r="G21">
-        <v>1.5782905946799997</v>
+        <v>0.10148500000000001</v>
       </c>
       <c r="H21">
-        <v>0.35745922031999983</v>
+        <v>4.204326944</v>
       </c>
       <c r="I21">
-        <v>3.145301247E-2</v>
+        <v>0.20485400000000001</v>
       </c>
       <c r="J21">
         <v>0.25</v>
@@ -6299,8 +8267,29 @@
       <c r="M21">
         <v>25.87</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>0.25</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.1</v>
+      </c>
+      <c r="Q21">
+        <v>0.1</v>
+      </c>
+      <c r="R21">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -6317,16 +8306,16 @@
         <v>9850</v>
       </c>
       <c r="F22">
-        <v>1.3766616369999873E-2</v>
+        <v>3.0662349999999998</v>
       </c>
       <c r="G22">
-        <v>1.5195124360999999</v>
+        <v>8.5208999999999993E-2</v>
       </c>
       <c r="H22">
-        <v>0.34368865687</v>
+        <v>4.2664491329999992</v>
       </c>
       <c r="I22">
-        <v>3.1580155929999999E-2</v>
+        <v>0.23450699999999999</v>
       </c>
       <c r="J22">
         <v>0.25</v>
@@ -6340,8 +8329,29 @@
       <c r="M22">
         <v>25.89</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>0.25</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.1</v>
+      </c>
+      <c r="Q22">
+        <v>0.1</v>
+      </c>
+      <c r="R22">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -6358,16 +8368,16 @@
         <v>9850</v>
       </c>
       <c r="F23">
-        <v>1.0457722000000391E-2</v>
+        <v>3.2630309999999998</v>
       </c>
       <c r="G23">
-        <v>1.6029247773999997</v>
+        <v>9.2813999999999994E-2</v>
       </c>
       <c r="H23">
-        <v>0.36923513855000017</v>
+        <v>4.0805356750000001</v>
       </c>
       <c r="I23">
-        <v>3.4586671669999999E-2</v>
+        <v>0.14574799999999999</v>
       </c>
       <c r="J23">
         <v>0.25</v>
@@ -6381,8 +8391,29 @@
       <c r="M23">
         <v>26.24</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>0.25</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.1</v>
+      </c>
+      <c r="Q23">
+        <v>0.1</v>
+      </c>
+      <c r="R23">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -6399,16 +8430,16 @@
         <v>9850</v>
       </c>
       <c r="F24">
-        <v>1.1001205999999653E-2</v>
+        <v>3.0447440000000001</v>
       </c>
       <c r="G24">
-        <v>1.6857709211099998</v>
+        <v>8.5764000000000007E-2</v>
       </c>
       <c r="H24">
-        <v>0.37490589308999994</v>
+        <v>4.4812866260000002</v>
       </c>
       <c r="I24">
-        <v>3.5947838959999999E-2</v>
+        <v>0.104366</v>
       </c>
       <c r="J24">
         <v>0.25</v>
@@ -6422,8 +8453,29 @@
       <c r="M24">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>0.25</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.1</v>
+      </c>
+      <c r="Q24">
+        <v>0.1</v>
+      </c>
+      <c r="R24">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -6440,16 +8492,16 @@
         <v>9850</v>
       </c>
       <c r="F25">
-        <v>1.1241172000000077E-2</v>
+        <v>2.874301</v>
       </c>
       <c r="G25">
-        <v>1.8407649773100003</v>
+        <v>8.7711999999999998E-2</v>
       </c>
       <c r="H25">
-        <v>0.40337632916999988</v>
+        <v>4.1873385609999998</v>
       </c>
       <c r="I25">
-        <v>4.0518051619999995E-2</v>
+        <v>0.123224</v>
       </c>
       <c r="J25">
         <v>0.25</v>
@@ -6463,8 +8515,29 @@
       <c r="M25">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>0.25</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.1</v>
+      </c>
+      <c r="Q25">
+        <v>0.1</v>
+      </c>
+      <c r="R25">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S25">
+        <v>0.5</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -6481,16 +8554,16 @@
         <v>9850</v>
       </c>
       <c r="F26">
-        <v>3.1319680100000413E-3</v>
+        <v>1.399842</v>
       </c>
       <c r="G26">
-        <v>1.7182499681569998</v>
+        <v>3.6763919999999999</v>
       </c>
       <c r="H26">
-        <v>0.36434808836999988</v>
+        <v>2.7827559599999998</v>
       </c>
       <c r="I26">
-        <v>3.6215498250000006E-2</v>
+        <v>0.22862299999999999</v>
       </c>
       <c r="J26">
         <v>0.25</v>
@@ -6504,8 +8577,29 @@
       <c r="M26">
         <v>27.31</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>0.25</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0.1</v>
+      </c>
+      <c r="Q26">
+        <v>0.1</v>
+      </c>
+      <c r="R26">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S26">
+        <v>0.5</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -6522,16 +8616,16 @@
         <v>9850</v>
       </c>
       <c r="F27">
-        <v>2.7725840000000779E-3</v>
+        <v>1.3230200000000001</v>
       </c>
       <c r="G27">
-        <v>1.5871783538629995</v>
+        <v>3.1868249999999998</v>
       </c>
       <c r="H27">
-        <v>0.34408284023000002</v>
+        <v>2.42326402</v>
       </c>
       <c r="I27">
-        <v>3.5614821191000005E-2</v>
+        <v>0.207676</v>
       </c>
       <c r="J27">
         <v>0.25</v>
@@ -6545,8 +8639,29 @@
       <c r="M27">
         <v>26.87</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>0.25</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0.1</v>
+      </c>
+      <c r="Q27">
+        <v>0.1</v>
+      </c>
+      <c r="R27">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -6563,16 +8678,16 @@
         <v>9850</v>
       </c>
       <c r="F28">
-        <v>2.9368289999999742E-3</v>
+        <v>1.3054939999999999</v>
       </c>
       <c r="G28">
-        <v>1.8960315184459993</v>
+        <v>3.9177119999999999</v>
       </c>
       <c r="H28">
-        <v>0.42147816153199968</v>
+        <v>2.5370492000000002</v>
       </c>
       <c r="I28">
-        <v>4.4590605402000001E-2</v>
+        <v>0.158941</v>
       </c>
       <c r="J28">
         <v>0.25</v>
@@ -6586,8 +8701,29 @@
       <c r="M28">
         <v>27.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>0.25</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0.1</v>
+      </c>
+      <c r="Q28">
+        <v>0.1</v>
+      </c>
+      <c r="R28">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -6604,16 +8740,16 @@
         <v>9850</v>
       </c>
       <c r="F29">
-        <v>2.6700049999999753E-3</v>
+        <v>1.175238</v>
       </c>
       <c r="G29">
-        <v>1.9382227874814393</v>
+        <v>4.2211610000000004</v>
       </c>
       <c r="H29">
-        <v>0.4219518626299999</v>
+        <v>2.3573476800000002</v>
       </c>
       <c r="I29">
-        <v>4.2956796453999996E-2</v>
+        <v>0.16337699999999999</v>
       </c>
       <c r="J29">
         <v>0.25</v>
@@ -6627,8 +8763,29 @@
       <c r="M29">
         <v>27.03</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>0.25</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.1</v>
+      </c>
+      <c r="Q29">
+        <v>0.1</v>
+      </c>
+      <c r="R29">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S29">
+        <v>0.5</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -6645,16 +8802,16 @@
         <v>9850</v>
       </c>
       <c r="F30">
-        <v>3.3278069999999604E-3</v>
+        <v>1.140835</v>
       </c>
       <c r="G30">
-        <v>2.031474409978999</v>
+        <v>4.806235</v>
       </c>
       <c r="H30">
-        <v>0.47836983106000014</v>
+        <v>2.2033226899999998</v>
       </c>
       <c r="I30">
-        <v>4.6367685756999982E-2</v>
+        <v>0.24258100000000002</v>
       </c>
       <c r="J30">
         <v>0.25</v>
@@ -6668,8 +8825,29 @@
       <c r="M30">
         <v>27.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>0.25</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0.1</v>
+      </c>
+      <c r="Q30">
+        <v>0.1</v>
+      </c>
+      <c r="R30">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S30">
+        <v>0.5</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -6686,16 +8864,16 @@
         <v>9850</v>
       </c>
       <c r="F31">
-        <v>3.6134219999999773E-3</v>
+        <v>1.3085979999999997</v>
       </c>
       <c r="G31">
-        <v>0.96723300718599914</v>
+        <v>4.3503160000000003</v>
       </c>
       <c r="H31">
-        <v>0.43424082832200001</v>
+        <v>2.64720764</v>
       </c>
       <c r="I31">
-        <v>4.3002905316000005E-2</v>
+        <v>0.25023200000000001</v>
       </c>
       <c r="J31">
         <v>0.25</v>
@@ -6709,8 +8887,29 @@
       <c r="M31">
         <v>28.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>0.25</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0.1</v>
+      </c>
+      <c r="Q31">
+        <v>0.1</v>
+      </c>
+      <c r="R31">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S31">
+        <v>0.5</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -6727,16 +8926,16 @@
         <v>9850</v>
       </c>
       <c r="F32">
-        <v>3.7616390000000388E-3</v>
+        <v>1.171073</v>
       </c>
       <c r="G32">
-        <v>0.86906813906599978</v>
+        <v>3.595993</v>
       </c>
       <c r="H32">
-        <v>0.38269025905199999</v>
+        <v>3.1510394299999995</v>
       </c>
       <c r="I32">
-        <v>3.2956355128999991E-2</v>
+        <v>0.20871400000000001</v>
       </c>
       <c r="J32">
         <v>0.25</v>
@@ -6750,8 +8949,29 @@
       <c r="M32">
         <v>28.76</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>0.25</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.1</v>
+      </c>
+      <c r="Q32">
+        <v>0.1</v>
+      </c>
+      <c r="R32">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S32">
+        <v>0.5</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -6768,16 +8988,16 @@
         <v>9850</v>
       </c>
       <c r="F33">
-        <v>5.8849100000000765E-3</v>
+        <v>1.2411909999999999</v>
       </c>
       <c r="G33">
-        <v>0.88420780970499957</v>
+        <v>3.9878290000000001</v>
       </c>
       <c r="H33">
-        <v>0.49149419250800025</v>
+        <v>1.94106015</v>
       </c>
       <c r="I33">
-        <v>4.0149423892999997E-2</v>
+        <v>0.261573</v>
       </c>
       <c r="J33">
         <v>0.25</v>
@@ -6791,8 +9011,29 @@
       <c r="M33">
         <v>28.76</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>0.25</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0.1</v>
+      </c>
+      <c r="Q33">
+        <v>0.1</v>
+      </c>
+      <c r="R33">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S33">
+        <v>0.75</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -6809,16 +9050,16 @@
         <v>12300</v>
       </c>
       <c r="F34">
-        <v>7.420651707936432E-3</v>
+        <v>0.99144299999999996</v>
       </c>
       <c r="G34">
-        <v>0.96345239004198391</v>
+        <v>3.6726420000000002</v>
       </c>
       <c r="H34">
-        <v>0.54157367439167814</v>
+        <v>2.3567820199999998</v>
       </c>
       <c r="I34">
-        <v>4.298967994963012E-2</v>
+        <v>0.20994699999999999</v>
       </c>
       <c r="J34">
         <v>0.25</v>
@@ -6832,8 +9073,29 @@
       <c r="M34">
         <v>29.17</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>0.25</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0.1</v>
+      </c>
+      <c r="Q34">
+        <v>0.1</v>
+      </c>
+      <c r="R34">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S34">
+        <v>0.75</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -6850,16 +9112,16 @@
         <v>12000</v>
       </c>
       <c r="F35">
-        <v>7.2705401699999922E-3</v>
+        <v>0.70743999999999996</v>
       </c>
       <c r="G35">
-        <v>1.1151972387530003</v>
+        <v>4.4260210000000004</v>
       </c>
       <c r="H35">
-        <v>0.61256099786099993</v>
+        <v>1.5360912199999999</v>
       </c>
       <c r="I35">
-        <v>4.173339835199999E-2</v>
+        <v>0.19575600000000001</v>
       </c>
       <c r="J35">
         <v>0.25</v>
@@ -6873,8 +9135,29 @@
       <c r="M35">
         <v>29.44</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>0.25</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0.1</v>
+      </c>
+      <c r="Q35">
+        <v>0.1</v>
+      </c>
+      <c r="R35">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S35">
+        <v>0.75</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -6891,16 +9174,16 @@
         <v>12000</v>
       </c>
       <c r="F36">
-        <v>1.6709706518611388E-3</v>
+        <v>0.85691799999999996</v>
       </c>
       <c r="G36">
-        <v>1.1252480091639496</v>
+        <v>4.503692</v>
       </c>
       <c r="H36">
-        <v>0.58887201308852777</v>
+        <v>2.2870637199999999</v>
       </c>
       <c r="I36">
-        <v>3.7027035004573904E-2</v>
+        <v>0.15828</v>
       </c>
       <c r="J36">
         <v>0.25</v>
@@ -6914,8 +9197,29 @@
       <c r="M36">
         <v>29.89</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>0.25</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0.1</v>
+      </c>
+      <c r="Q36">
+        <v>0.1</v>
+      </c>
+      <c r="R36">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -6932,16 +9236,16 @@
         <v>12000</v>
       </c>
       <c r="F37">
-        <v>1.5730871614871036E-3</v>
+        <v>0.96933999999999998</v>
       </c>
       <c r="G37">
-        <v>1.1926703396650002</v>
+        <v>4.28043</v>
       </c>
       <c r="H37">
-        <v>0.63152775095249558</v>
+        <v>2.49979</v>
       </c>
       <c r="I37">
-        <v>3.7579615593799992E-2</v>
+        <v>0.18303</v>
       </c>
       <c r="J37">
         <v>0.25</v>
@@ -6955,8 +9259,29 @@
       <c r="M37">
         <v>30.09</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>0.25</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0.1</v>
+      </c>
+      <c r="Q37">
+        <v>0.25</v>
+      </c>
+      <c r="R37">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -6976,13 +9301,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1.5608825000000159E-2</v>
+        <v>6.4247300000000003</v>
       </c>
       <c r="H38">
-        <v>0.62414164399999994</v>
+        <v>1.9037416439875043</v>
       </c>
       <c r="I38">
-        <v>3.3693218000000004E-2</v>
+        <v>0.15724099999999999</v>
       </c>
       <c r="J38">
         <v>0.25</v>
@@ -6996,8 +9321,29 @@
       <c r="M38">
         <v>30.03</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>0.25</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0.1</v>
+      </c>
+      <c r="Q38">
+        <v>0.25</v>
+      </c>
+      <c r="R38">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S38">
+        <v>1.25</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -7017,13 +9363,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1.4381327000000166E-2</v>
+        <v>4.1826309999999998</v>
       </c>
       <c r="H39">
-        <v>0.53208016899999999</v>
+        <v>1.76872853</v>
       </c>
       <c r="I39">
-        <v>2.3859642E-2</v>
+        <v>0.10405399999999999</v>
       </c>
       <c r="J39">
         <v>0.25</v>
@@ -7037,8 +9383,29 @@
       <c r="M39">
         <v>30.69</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>0.25</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0.1</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
+      </c>
+      <c r="R39">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S39">
+        <v>1.25</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -7055,13 +9422,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1.5589043000000302E-2</v>
+        <v>4.0622219999999993</v>
       </c>
       <c r="H40">
-        <v>0.68940792699999998</v>
+        <v>1.3506088299999999</v>
       </c>
       <c r="I40">
-        <v>2.5627817000000001E-2</v>
+        <v>0.10569100000000001</v>
       </c>
       <c r="J40">
         <v>0.5</v>
@@ -7075,8 +9442,29 @@
       <c r="M40">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>0.5</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0.1</v>
+      </c>
+      <c r="Q40">
+        <v>0.75</v>
+      </c>
+      <c r="R40">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S40">
+        <v>1.25</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -7090,16 +9478,16 @@
         <v>14500</v>
       </c>
       <c r="F41">
-        <v>8.6189999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1.6340449999999951E-2</v>
+        <v>4.6366731599999991</v>
       </c>
       <c r="H41">
-        <v>0.50004719900000005</v>
+        <v>0.7020010000000001</v>
       </c>
       <c r="I41">
-        <v>2.6036866999999998E-2</v>
+        <v>8.0237000000000003E-2</v>
       </c>
       <c r="J41">
         <v>0.5</v>
@@ -7113,8 +9501,29 @@
       <c r="M41">
         <v>30.59</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>0.5</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0.1</v>
+      </c>
+      <c r="Q41">
+        <v>0.75</v>
+      </c>
+      <c r="R41">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S41">
+        <v>1.5</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -7128,16 +9537,16 @@
         <v>14500</v>
       </c>
       <c r="F42">
-        <v>4.8900199999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1.355883099999966E-2</v>
+        <v>7.2133174400000009</v>
       </c>
       <c r="H42">
-        <v>0.50159204000000002</v>
+        <v>0.24183299999999996</v>
       </c>
       <c r="I42">
-        <v>2.3846415999999999E-2</v>
+        <v>0.10618999999999999</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -7151,8 +9560,29 @@
       <c r="M42">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0.1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S42">
+        <v>1.75</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -7166,16 +9596,16 @@
         <v>14500</v>
       </c>
       <c r="F43">
-        <v>5.3377700000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1.3757200999999775E-2</v>
+        <v>7.1077613078884605</v>
       </c>
       <c r="H43">
-        <v>0.40243188799999996</v>
+        <v>0.31207799999999997</v>
       </c>
       <c r="I43">
-        <v>2.1394923000000003E-2</v>
+        <v>0.18737999999999999</v>
       </c>
       <c r="J43">
         <v>1.75</v>
@@ -7189,8 +9619,29 @@
       <c r="M43">
         <v>30.33</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>1.75</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0.1</v>
+      </c>
+      <c r="Q43">
+        <v>1.25</v>
+      </c>
+      <c r="R43">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S43">
+        <v>1.75</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -7204,16 +9655,16 @@
         <v>16200</v>
       </c>
       <c r="F44">
-        <v>7.4773699999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1.4252990999999771E-2</v>
+        <v>7.1483999000000003</v>
       </c>
       <c r="H44">
-        <v>0.44466107700000002</v>
+        <v>0.14116399999999998</v>
       </c>
       <c r="I44">
-        <v>1.9738569000000001E-2</v>
+        <v>0.14018600000000001</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -7227,8 +9678,29 @@
       <c r="M44">
         <v>30.57</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>2.5</v>
+      </c>
+      <c r="O44">
+        <v>0.5</v>
+      </c>
+      <c r="P44">
+        <v>0.1</v>
+      </c>
+      <c r="Q44">
+        <v>1.25</v>
+      </c>
+      <c r="R44">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S44">
+        <v>2.25</v>
+      </c>
+      <c r="T44" s="2">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -7242,16 +9714,16 @@
         <v>18900</v>
       </c>
       <c r="F45">
-        <v>2.2951069999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1.3898518000000415E-2</v>
+        <v>7.37717504</v>
       </c>
       <c r="H45">
-        <v>0.42471922700000003</v>
+        <v>0.20561399999999999</v>
       </c>
       <c r="I45">
-        <v>1.8206087999999999E-2</v>
+        <v>8.5457999999999992E-2</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -7265,8 +9737,29 @@
       <c r="M45">
         <v>31.61</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>2.5</v>
+      </c>
+      <c r="O45">
+        <v>0.5</v>
+      </c>
+      <c r="P45">
+        <v>0.1</v>
+      </c>
+      <c r="Q45">
+        <v>1.75</v>
+      </c>
+      <c r="R45">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S45">
+        <v>2.5</v>
+      </c>
+      <c r="T45" s="2">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -7280,16 +9773,16 @@
         <v>15900</v>
       </c>
       <c r="F46">
-        <v>7.6291530000000005E-3</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1.2866429000000235E-2</v>
+        <v>7.3226142300000001</v>
       </c>
       <c r="H46">
-        <v>0.38731996099999999</v>
+        <v>0.397121</v>
       </c>
       <c r="I46">
-        <v>2.2288633000000002E-2</v>
+        <v>5.1588000000000002E-2</v>
       </c>
       <c r="J46">
         <v>3.25</v>
@@ -7303,8 +9796,29 @@
       <c r="M46">
         <v>31.69</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <v>3.25</v>
+      </c>
+      <c r="O46">
+        <v>1.25</v>
+      </c>
+      <c r="P46">
+        <v>0.1</v>
+      </c>
+      <c r="Q46">
+        <v>2.25</v>
+      </c>
+      <c r="R46">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S46">
+        <v>2.5</v>
+      </c>
+      <c r="T46" s="2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -7318,16 +9832,16 @@
         <v>13900</v>
       </c>
       <c r="F47">
-        <v>6.303047E-3</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1.6912817000000135E-2</v>
+        <v>7.5489187499999995</v>
       </c>
       <c r="H47">
-        <v>0.41743391400000002</v>
+        <v>0.390739</v>
       </c>
       <c r="I47">
-        <v>3.1165942999999998E-2</v>
+        <v>4.5564E-2</v>
       </c>
       <c r="J47">
         <v>3.25</v>
@@ -7341,8 +9855,29 @@
       <c r="M47">
         <v>31.22</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>3.25</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>0.1</v>
+      </c>
+      <c r="Q47">
+        <v>2.25</v>
+      </c>
+      <c r="R47">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="T47" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
@@ -7359,13 +9894,13 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>2.1882775999999993E-2</v>
+        <v>7.0959428999999998</v>
       </c>
       <c r="H48">
-        <v>0.40938247300000002</v>
+        <v>5.5403000000000001E-2</v>
       </c>
       <c r="I48">
-        <v>3.8733076999999998E-2</v>
+        <v>0.113123</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -7379,8 +9914,29 @@
       <c r="M48">
         <v>30.82</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>0.1</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S48">
+        <v>3.25</v>
+      </c>
+      <c r="T48" s="2">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
@@ -7397,13 +9953,13 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>2.0969757000000033E-2</v>
+        <v>8.1082526399999999</v>
       </c>
       <c r="H49">
-        <v>0.44023971100000003</v>
+        <v>0.17831</v>
       </c>
       <c r="I49">
-        <v>3.4178599000000004E-2</v>
+        <v>0.12657599999999999</v>
       </c>
       <c r="J49">
         <v>4.5</v>
@@ -7417,8 +9973,29 @@
       <c r="M49">
         <v>30.99</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>4.5</v>
+      </c>
+      <c r="O49">
+        <v>2.5</v>
+      </c>
+      <c r="P49">
+        <v>0.1</v>
+      </c>
+      <c r="Q49">
+        <v>3.5</v>
+      </c>
+      <c r="R49">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S49">
+        <v>3.25</v>
+      </c>
+      <c r="T49" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
@@ -7435,13 +10012,13 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1.6724760000000227E-2</v>
+        <v>6.9192464899999999</v>
       </c>
       <c r="H50">
-        <v>0.43431256400000007</v>
+        <v>0.11058799999999999</v>
       </c>
       <c r="I50">
-        <v>3.3543300000000005E-2</v>
+        <v>5.5335999999999996E-2</v>
       </c>
       <c r="J50">
         <v>4.5</v>
@@ -7455,8 +10032,29 @@
       <c r="M50">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>4.5</v>
+      </c>
+      <c r="O50">
+        <v>2.5</v>
+      </c>
+      <c r="P50">
+        <v>0.1</v>
+      </c>
+      <c r="Q50">
+        <v>3.5</v>
+      </c>
+      <c r="R50">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S50">
+        <v>3.5</v>
+      </c>
+      <c r="T50" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -7473,13 +10071,13 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1.4548435000000026E-2</v>
+        <v>6.0978128298866467</v>
       </c>
       <c r="H51">
-        <v>0.39728946000000015</v>
+        <v>0.50398600000000005</v>
       </c>
       <c r="I51">
-        <v>2.5955994000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>4.75</v>
@@ -7493,8 +10091,29 @@
       <c r="M51">
         <v>30.63</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>4.75</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>0.1</v>
+      </c>
+      <c r="Q51">
+        <v>4</v>
+      </c>
+      <c r="R51">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S51">
+        <v>3.5</v>
+      </c>
+      <c r="T51" s="2">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -7511,13 +10130,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>-0.1357936090000007</v>
+        <v>6.39633831</v>
       </c>
       <c r="H52">
-        <v>0.42896331799999987</v>
+        <v>0.60120899999999999</v>
       </c>
       <c r="I52">
-        <v>2.9084336000000002E-2</v>
+        <v>2.7911000000000002E-2</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -7531,8 +10150,29 @@
       <c r="M52">
         <v>30.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>3.5</v>
+      </c>
+      <c r="P52">
+        <v>0.1</v>
+      </c>
+      <c r="Q52">
+        <v>4.25</v>
+      </c>
+      <c r="R52">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S52">
+        <v>3.5</v>
+      </c>
+      <c r="T52" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>88</v>
       </c>
@@ -7549,13 +10189,13 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1.3362562999999827E-2</v>
+        <v>7.6314384899999999</v>
       </c>
       <c r="H53">
-        <v>0.46921043499999993</v>
+        <v>0.666072</v>
       </c>
       <c r="I53">
-        <v>3.0291274999999999E-2</v>
+        <v>2.2849000000000001E-2</v>
       </c>
       <c r="J53">
         <v>5</v>
@@ -7569,8 +10209,29 @@
       <c r="M53">
         <v>30.73</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53">
+        <v>3.5</v>
+      </c>
+      <c r="P53">
+        <v>0.1</v>
+      </c>
+      <c r="Q53">
+        <v>4.25</v>
+      </c>
+      <c r="R53">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S53">
+        <v>3.5</v>
+      </c>
+      <c r="T53" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -7587,13 +10248,13 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1.5911094000000681E-2</v>
+        <v>7.22415889</v>
       </c>
       <c r="H54">
-        <v>0.41665906400000019</v>
+        <v>0.56399100000000002</v>
       </c>
       <c r="I54">
-        <v>1.7764986999999999E-2</v>
+        <v>7.8802999999999998E-2</v>
       </c>
       <c r="J54">
         <v>5.25</v>
@@ -7607,8 +10268,29 @@
       <c r="M54">
         <v>30.14</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>5.25</v>
+      </c>
+      <c r="O54">
+        <v>3.75</v>
+      </c>
+      <c r="P54">
+        <v>0.1</v>
+      </c>
+      <c r="Q54">
+        <v>4.5</v>
+      </c>
+      <c r="R54">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S54">
+        <v>3.5</v>
+      </c>
+      <c r="T54" s="2">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
@@ -7625,13 +10307,13 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>2.4291091000001153E-2</v>
+        <v>7.0235525500000007</v>
       </c>
       <c r="H55">
-        <v>0.40403909399999999</v>
+        <v>0.6590450000000001</v>
       </c>
       <c r="I55">
-        <v>1.8976125999999999E-2</v>
+        <v>2.2959E-2</v>
       </c>
       <c r="J55">
         <v>5.25</v>
@@ -7642,8 +10324,29 @@
       <c r="L55">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>5.25</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>0.1</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S55">
+        <v>3.5</v>
+      </c>
+      <c r="T55" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20230701</v>
       </c>
@@ -7656,8 +10359,29 @@
       <c r="L56">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>5.5</v>
+      </c>
+      <c r="O56">
+        <v>4.25</v>
+      </c>
+      <c r="P56">
+        <v>0.1</v>
+      </c>
+      <c r="Q56">
+        <v>5</v>
+      </c>
+      <c r="R56">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S56">
+        <v>3.5</v>
+      </c>
+      <c r="T56" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20230801</v>
       </c>
@@ -7670,8 +10394,29 @@
       <c r="L57">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <v>5.5</v>
+      </c>
+      <c r="O57">
+        <v>4.25</v>
+      </c>
+      <c r="P57">
+        <v>0.1</v>
+      </c>
+      <c r="Q57">
+        <v>5.25</v>
+      </c>
+      <c r="R57">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S57">
+        <v>3.5</v>
+      </c>
+      <c r="T57" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20230901</v>
       </c>
@@ -7684,8 +10429,29 @@
       <c r="L58">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <v>5.5</v>
+      </c>
+      <c r="O58">
+        <v>4.5</v>
+      </c>
+      <c r="P58">
+        <v>0.1</v>
+      </c>
+      <c r="Q58">
+        <v>5.25</v>
+      </c>
+      <c r="R58">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S58">
+        <v>3.5</v>
+      </c>
+      <c r="T58" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20231001</v>
       </c>
@@ -7697,6 +10463,891 @@
       </c>
       <c r="L59">
         <v>6</v>
+      </c>
+      <c r="N59">
+        <v>5.5</v>
+      </c>
+      <c r="O59">
+        <v>4.5</v>
+      </c>
+      <c r="P59">
+        <v>0.1</v>
+      </c>
+      <c r="Q59">
+        <v>5.25</v>
+      </c>
+      <c r="R59">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="S59">
+        <v>3.5</v>
+      </c>
+      <c r="T59" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B3E0E3-7E66-4E21-AF8A-FEC1C57D6326}">
+  <dimension ref="A1:BC6"/>
+  <sheetViews>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:BC6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="N1">
+        <v>2020</v>
+      </c>
+      <c r="Z1">
+        <v>2021</v>
+      </c>
+      <c r="AL1">
+        <v>2022</v>
+      </c>
+      <c r="AX1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3">
+        <v>4.4711400000000001</v>
+      </c>
+      <c r="C3">
+        <v>4.4671099999999999</v>
+      </c>
+      <c r="D3">
+        <v>4.7073729999999996</v>
+      </c>
+      <c r="E3">
+        <v>4.1932919999999996</v>
+      </c>
+      <c r="F3">
+        <v>4.499841</v>
+      </c>
+      <c r="G3">
+        <v>4.2779559999999996</v>
+      </c>
+      <c r="H3">
+        <v>4.1363760000000003</v>
+      </c>
+      <c r="I3">
+        <v>3.7244130000000002</v>
+      </c>
+      <c r="J3">
+        <v>2.6833779999999998</v>
+      </c>
+      <c r="K3">
+        <v>2.6709399999999999</v>
+      </c>
+      <c r="L3">
+        <v>3.2540978230659001</v>
+      </c>
+      <c r="M3">
+        <v>7.2941024575875399</v>
+      </c>
+      <c r="N3">
+        <v>3.5379710000000002</v>
+      </c>
+      <c r="O3">
+        <v>3.2501250000000002</v>
+      </c>
+      <c r="P3">
+        <v>3.919063</v>
+      </c>
+      <c r="Q3">
+        <v>3.8755730000000002</v>
+      </c>
+      <c r="R3">
+        <v>3.6806049999999999</v>
+      </c>
+      <c r="S3">
+        <v>3.5197859999999999</v>
+      </c>
+      <c r="T3">
+        <v>3.658426</v>
+      </c>
+      <c r="U3">
+        <v>3.0484840000000002</v>
+      </c>
+      <c r="V3">
+        <v>3.0662349999999998</v>
+      </c>
+      <c r="W3">
+        <v>3.2630309999999998</v>
+      </c>
+      <c r="X3">
+        <v>3.0447440000000001</v>
+      </c>
+      <c r="Y3">
+        <v>2.874301</v>
+      </c>
+      <c r="Z3">
+        <v>1.399842</v>
+      </c>
+      <c r="AA3">
+        <v>1.3230200000000001</v>
+      </c>
+      <c r="AB3">
+        <v>1.3054939999999999</v>
+      </c>
+      <c r="AC3">
+        <v>1.175238</v>
+      </c>
+      <c r="AD3">
+        <v>1.140835</v>
+      </c>
+      <c r="AE3">
+        <v>1.3085979999999997</v>
+      </c>
+      <c r="AF3">
+        <v>1.171073</v>
+      </c>
+      <c r="AG3">
+        <v>1.2411909999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.99144299999999996</v>
+      </c>
+      <c r="AI3">
+        <v>0.70743999999999996</v>
+      </c>
+      <c r="AJ3">
+        <v>0.85691799999999996</v>
+      </c>
+      <c r="AK3">
+        <v>0.96933999999999998</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>4.8989999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.4101000000000005E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.10143000000000001</v>
+      </c>
+      <c r="E4">
+        <v>7.4557999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>8.5792999999999994E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>9.0554999999999997E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.9461999999999999E-2</v>
+      </c>
+      <c r="J4">
+        <v>6.8401000000000003E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.147314</v>
+      </c>
+      <c r="L4">
+        <v>5.5377000000000003E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.14222399999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.122014</v>
+      </c>
+      <c r="O4">
+        <v>0.10804000000000001</v>
+      </c>
+      <c r="P4">
+        <v>7.3161000000000004E-2</v>
+      </c>
+      <c r="Q4">
+        <v>6.3459000000000002E-2</v>
+      </c>
+      <c r="R4">
+        <v>8.8721999999999995E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.100803</v>
+      </c>
+      <c r="T4">
+        <v>8.2050999999999999E-2</v>
+      </c>
+      <c r="U4">
+        <v>0.10148500000000001</v>
+      </c>
+      <c r="V4">
+        <v>8.5208999999999993E-2</v>
+      </c>
+      <c r="W4">
+        <v>9.2813999999999994E-2</v>
+      </c>
+      <c r="X4">
+        <v>8.5764000000000007E-2</v>
+      </c>
+      <c r="Y4">
+        <v>8.7711999999999998E-2</v>
+      </c>
+      <c r="Z4">
+        <v>3.6763919999999999</v>
+      </c>
+      <c r="AA4">
+        <v>3.1868249999999998</v>
+      </c>
+      <c r="AB4">
+        <v>3.9177119999999999</v>
+      </c>
+      <c r="AC4">
+        <v>4.2211610000000004</v>
+      </c>
+      <c r="AD4">
+        <v>4.806235</v>
+      </c>
+      <c r="AE4">
+        <v>4.3503160000000003</v>
+      </c>
+      <c r="AF4">
+        <v>3.595993</v>
+      </c>
+      <c r="AG4">
+        <v>3.9878290000000001</v>
+      </c>
+      <c r="AH4">
+        <v>3.6726420000000002</v>
+      </c>
+      <c r="AI4">
+        <v>4.4260210000000004</v>
+      </c>
+      <c r="AJ4">
+        <v>4.503692</v>
+      </c>
+      <c r="AK4">
+        <v>4.28043</v>
+      </c>
+      <c r="AL4">
+        <v>6.4247300000000003</v>
+      </c>
+      <c r="AM4">
+        <v>4.1826309999999998</v>
+      </c>
+      <c r="AN4">
+        <v>4.0622219999999993</v>
+      </c>
+      <c r="AO4">
+        <v>4.6366731599999991</v>
+      </c>
+      <c r="AP4">
+        <v>7.2133174400000009</v>
+      </c>
+      <c r="AQ4">
+        <v>7.1077613078884605</v>
+      </c>
+      <c r="AR4">
+        <v>7.1483999000000003</v>
+      </c>
+      <c r="AS4">
+        <v>7.37717504</v>
+      </c>
+      <c r="AT4">
+        <v>7.3226142300000001</v>
+      </c>
+      <c r="AU4">
+        <v>7.5489187499999995</v>
+      </c>
+      <c r="AV4">
+        <v>7.0959428999999998</v>
+      </c>
+      <c r="AW4">
+        <v>8.1082526399999999</v>
+      </c>
+      <c r="AX4">
+        <v>6.9192464899999999</v>
+      </c>
+      <c r="AY4">
+        <v>6.0978128298866467</v>
+      </c>
+      <c r="AZ4">
+        <v>6.39633831</v>
+      </c>
+      <c r="BA4">
+        <v>7.6314384899999999</v>
+      </c>
+      <c r="BB4">
+        <v>7.22415889</v>
+      </c>
+      <c r="BC4">
+        <v>7.0235525500000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>3.1516599056010102</v>
+      </c>
+      <c r="C5">
+        <v>2.0898110581371898</v>
+      </c>
+      <c r="D5">
+        <v>2.8335265302555102</v>
+      </c>
+      <c r="E5">
+        <v>3.2312303642674598</v>
+      </c>
+      <c r="F5">
+        <v>3.4400652549194501</v>
+      </c>
+      <c r="G5">
+        <v>3.0842070031466302</v>
+      </c>
+      <c r="H5">
+        <v>4.5320183422308196</v>
+      </c>
+      <c r="I5">
+        <v>4.7867367702957804</v>
+      </c>
+      <c r="J5">
+        <v>5.5623101636249199</v>
+      </c>
+      <c r="K5">
+        <v>4.1186369408432997</v>
+      </c>
+      <c r="L5">
+        <v>5.0521764868632504</v>
+      </c>
+      <c r="M5">
+        <v>2.52506420605159</v>
+      </c>
+      <c r="N5">
+        <v>5.1246030000000005</v>
+      </c>
+      <c r="O5">
+        <v>4.7464440000000003</v>
+      </c>
+      <c r="P5">
+        <v>4.7808978099999999</v>
+      </c>
+      <c r="Q5">
+        <v>2.8641704579999998</v>
+      </c>
+      <c r="R5">
+        <v>3.1606827110000002</v>
+      </c>
+      <c r="S5">
+        <v>3.337053687</v>
+      </c>
+      <c r="T5">
+        <v>3.0601363030000002</v>
+      </c>
+      <c r="U5">
+        <v>4.204326944</v>
+      </c>
+      <c r="V5">
+        <v>4.2664491329999992</v>
+      </c>
+      <c r="W5">
+        <v>4.0805356750000001</v>
+      </c>
+      <c r="X5">
+        <v>4.4812866260000002</v>
+      </c>
+      <c r="Y5">
+        <v>4.1873385609999998</v>
+      </c>
+      <c r="Z5">
+        <v>2.7827559599999998</v>
+      </c>
+      <c r="AA5">
+        <v>2.42326402</v>
+      </c>
+      <c r="AB5">
+        <v>2.5370492000000002</v>
+      </c>
+      <c r="AC5">
+        <v>2.3573476800000002</v>
+      </c>
+      <c r="AD5">
+        <v>2.2033226899999998</v>
+      </c>
+      <c r="AE5">
+        <v>2.64720764</v>
+      </c>
+      <c r="AF5">
+        <v>3.1510394299999995</v>
+      </c>
+      <c r="AG5">
+        <v>1.94106015</v>
+      </c>
+      <c r="AH5">
+        <v>2.3567820199999998</v>
+      </c>
+      <c r="AI5">
+        <v>1.5360912199999999</v>
+      </c>
+      <c r="AJ5">
+        <v>2.2870637199999999</v>
+      </c>
+      <c r="AK5">
+        <v>2.49979</v>
+      </c>
+      <c r="AL5">
+        <v>1.9037416439875043</v>
+      </c>
+      <c r="AM5">
+        <v>1.76872853</v>
+      </c>
+      <c r="AN5">
+        <v>1.3506088299999999</v>
+      </c>
+      <c r="AO5">
+        <v>0.7020010000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.24183299999999996</v>
+      </c>
+      <c r="AQ5">
+        <v>0.31207799999999997</v>
+      </c>
+      <c r="AR5">
+        <v>0.14116399999999998</v>
+      </c>
+      <c r="AS5">
+        <v>0.20561399999999999</v>
+      </c>
+      <c r="AT5">
+        <v>0.397121</v>
+      </c>
+      <c r="AU5">
+        <v>0.390739</v>
+      </c>
+      <c r="AV5">
+        <v>5.5403000000000001E-2</v>
+      </c>
+      <c r="AW5">
+        <v>0.17831</v>
+      </c>
+      <c r="AX5">
+        <v>0.11058799999999999</v>
+      </c>
+      <c r="AY5">
+        <v>0.50398600000000005</v>
+      </c>
+      <c r="AZ5">
+        <v>0.60120899999999999</v>
+      </c>
+      <c r="BA5">
+        <v>0.666072</v>
+      </c>
+      <c r="BB5">
+        <v>0.56399100000000002</v>
+      </c>
+      <c r="BC5">
+        <v>0.6590450000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0.10402</v>
+      </c>
+      <c r="C6">
+        <v>3.4691E-2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>9.1186000000000003E-2</v>
+      </c>
+      <c r="F6">
+        <v>9.0956999999999996E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.12894600000000001</v>
+      </c>
+      <c r="H6">
+        <v>9.0830999999999995E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.13442599999999999</v>
+      </c>
+      <c r="J6">
+        <v>8.1423999999999996E-2</v>
+      </c>
+      <c r="K6">
+        <v>6.6831000000000002E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.110432</v>
+      </c>
+      <c r="M6">
+        <v>0.117573</v>
+      </c>
+      <c r="N6">
+        <v>0.16833799999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.122738</v>
+      </c>
+      <c r="P6">
+        <v>0.25541700000000001</v>
+      </c>
+      <c r="Q6">
+        <v>6.0687999999999999E-2</v>
+      </c>
+      <c r="R6">
+        <v>0.105728</v>
+      </c>
+      <c r="S6">
+        <v>5.16E-2</v>
+      </c>
+      <c r="T6">
+        <v>4.7793000000000002E-2</v>
+      </c>
+      <c r="U6">
+        <v>0.20485400000000001</v>
+      </c>
+      <c r="V6">
+        <v>0.23450699999999999</v>
+      </c>
+      <c r="W6">
+        <v>0.14574799999999999</v>
+      </c>
+      <c r="X6">
+        <v>0.104366</v>
+      </c>
+      <c r="Y6">
+        <v>0.123224</v>
+      </c>
+      <c r="Z6">
+        <v>0.22862299999999999</v>
+      </c>
+      <c r="AA6">
+        <v>0.207676</v>
+      </c>
+      <c r="AB6">
+        <v>0.158941</v>
+      </c>
+      <c r="AC6">
+        <v>0.16337699999999999</v>
+      </c>
+      <c r="AD6">
+        <v>0.24258100000000002</v>
+      </c>
+      <c r="AE6">
+        <v>0.25023200000000001</v>
+      </c>
+      <c r="AF6">
+        <v>0.20871400000000001</v>
+      </c>
+      <c r="AG6">
+        <v>0.261573</v>
+      </c>
+      <c r="AH6">
+        <v>0.20994699999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.19575600000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>0.15828</v>
+      </c>
+      <c r="AK6">
+        <v>0.18303</v>
+      </c>
+      <c r="AL6">
+        <v>0.15724099999999999</v>
+      </c>
+      <c r="AM6">
+        <v>0.10405399999999999</v>
+      </c>
+      <c r="AN6">
+        <v>0.10569100000000001</v>
+      </c>
+      <c r="AO6">
+        <v>8.0237000000000003E-2</v>
+      </c>
+      <c r="AP6">
+        <v>0.10618999999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>0.18737999999999999</v>
+      </c>
+      <c r="AR6">
+        <v>0.14018600000000001</v>
+      </c>
+      <c r="AS6">
+        <v>8.5457999999999992E-2</v>
+      </c>
+      <c r="AT6">
+        <v>5.1588000000000002E-2</v>
+      </c>
+      <c r="AU6">
+        <v>4.5564E-2</v>
+      </c>
+      <c r="AV6">
+        <v>0.113123</v>
+      </c>
+      <c r="AW6">
+        <v>0.12657599999999999</v>
+      </c>
+      <c r="AX6">
+        <v>5.5335999999999996E-2</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>2.7911000000000002E-2</v>
+      </c>
+      <c r="BA6">
+        <v>2.2849000000000001E-2</v>
+      </c>
+      <c r="BB6">
+        <v>7.8802999999999998E-2</v>
+      </c>
+      <c r="BC6">
+        <v>2.2959E-2</v>
       </c>
     </row>
   </sheetData>
